--- a/app/data/destinations_data.xlsx
+++ b/app/data/destinations_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Software Dissertation New Final\Project Data\Destination Data\Final_Data_Python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Software Dissertation New Final\System\Trek_Seeker_Web_App_Python\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1846A15A-DE95-4AF9-AD57-B72FACE6883E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E77C7F-ECE4-4F50-B42D-1354E27677B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -278,9 +278,6 @@
     <t>St Anthony's Church</t>
   </si>
   <si>
-    <t>Royal Colombo Gold Club</t>
-  </si>
-  <si>
     <t>Seema Malaka Temple</t>
   </si>
   <si>
@@ -453,6 +450,9 @@
   </si>
   <si>
     <t>Time_Spent</t>
+  </si>
+  <si>
+    <t>Royal Colombo Golf Club</t>
   </si>
 </sst>
 </file>
@@ -944,7 +944,7 @@
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>Royal Colombo Gold Club</v>
+            <v>Royal Colombo Golf Club</v>
           </cell>
           <cell r="B30">
             <v>6.9052321000000001</v>
@@ -1356,7 +1356,7 @@
   <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1372,7 +1372,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2218,7 +2218,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>52</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>52</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>52</v>
@@ -2254,7 +2254,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>52</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>52</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>52</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>52</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>52</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>52</v>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>52</v>
@@ -2338,10 +2338,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C86" s="1">
         <v>90</v>
@@ -2349,10 +2349,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87" s="1">
         <v>45</v>
@@ -2360,10 +2360,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88" s="1">
         <v>120</v>
@@ -2371,10 +2371,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C89" s="1">
         <v>60</v>
@@ -2382,10 +2382,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C90" s="1">
         <v>200</v>
@@ -2393,10 +2393,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C91" s="1">
         <v>30</v>
@@ -2404,10 +2404,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92" s="1">
         <v>120</v>
@@ -2415,10 +2415,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C93" s="1">
         <v>90</v>
@@ -2426,10 +2426,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C94" s="1">
         <v>90</v>
@@ -2437,10 +2437,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" s="1">
         <v>40</v>
@@ -2448,10 +2448,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C96" s="1">
         <v>90</v>
@@ -2459,10 +2459,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C97" s="1">
         <v>300</v>
@@ -2470,10 +2470,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C98" s="1">
         <v>130</v>
@@ -2481,10 +2481,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C99" s="1">
         <v>120</v>
@@ -2492,10 +2492,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C100" s="1">
         <v>120</v>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C101" s="1">
         <v>90</v>
@@ -2514,10 +2514,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C102" s="1">
         <v>60</v>
@@ -2525,10 +2525,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C103" s="1">
         <v>30</v>
@@ -2536,10 +2536,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C104" s="1">
         <v>160</v>
@@ -2547,10 +2547,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C105" s="1">
         <v>90</v>
@@ -2558,10 +2558,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C106" s="1">
         <v>60</v>
@@ -2569,10 +2569,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C107" s="1">
         <v>90</v>
@@ -2580,10 +2580,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C108" s="1">
         <v>90</v>
@@ -2591,10 +2591,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C109" s="1">
         <v>90</v>
@@ -2602,10 +2602,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C110" s="1">
         <v>45</v>
@@ -2613,10 +2613,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C111" s="1">
         <v>45</v>
@@ -2624,10 +2624,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C112" s="1">
         <v>20</v>
@@ -2635,10 +2635,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C113" s="1">
         <v>240</v>
@@ -2646,10 +2646,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C114" s="1">
         <v>60</v>
@@ -2657,10 +2657,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C115" s="1">
         <v>90</v>
@@ -2668,10 +2668,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C116" s="1">
         <v>120</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C117" s="1">
         <v>45</v>
@@ -2690,10 +2690,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C118" s="1">
         <v>350</v>
@@ -2701,10 +2701,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C119" s="1">
         <v>40</v>
@@ -2712,10 +2712,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C120" s="1">
         <v>60</v>
@@ -2723,10 +2723,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C121" s="1">
         <v>90</v>
@@ -2734,10 +2734,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C122" s="1">
         <v>30</v>
@@ -2745,10 +2745,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C123" s="1">
         <v>120</v>
@@ -2756,10 +2756,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C124" s="1">
         <v>120</v>
@@ -2767,10 +2767,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C125" s="1">
         <v>120</v>
@@ -2778,10 +2778,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C126" s="1">
         <v>45</v>
@@ -2789,10 +2789,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C127" s="1">
         <v>90</v>
@@ -2800,10 +2800,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C128" s="1">
         <v>90</v>
@@ -2811,10 +2811,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C129" s="1">
         <v>280</v>
@@ -2822,10 +2822,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C130" s="1">
         <v>90</v>
@@ -2833,10 +2833,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C131" s="1">
         <v>90</v>
@@ -2844,10 +2844,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C132" s="1">
         <v>180</v>
